--- a/sample questions.xlsx
+++ b/sample questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Folder\GS questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Folder\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -958,11 +958,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1025,11 +1025,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1065,19 +1065,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1089,19 +1089,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="63" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1121,11 +1121,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="42" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1153,19 +1153,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="105" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="63" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1217,11 +1217,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="6" t="s">
         <v>13</v>
       </c>
     </row>
